--- a/BackTest/2019-11-02 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-02 BackTest ZRX.xlsx
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -7101,14 +7101,20 @@
         <v>348.7333333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>340</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7136,14 +7142,20 @@
         <v>348.6</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>340</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7171,14 +7183,20 @@
         <v>348.4666666666666</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>342</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7206,14 +7224,20 @@
         <v>348.3166666666667</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>340</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7241,14 +7265,20 @@
         <v>348.2</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>340</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7276,14 +7306,20 @@
         <v>348.05</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>341</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7311,14 +7347,20 @@
         <v>347.8833333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>342</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7346,14 +7388,20 @@
         <v>347.6166666666667</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>342</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7381,14 +7429,20 @@
         <v>347.3666666666667</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>340</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7416,14 +7470,20 @@
         <v>347.1</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>340</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7451,14 +7511,20 @@
         <v>346.8333333333333</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>339</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7552,20 @@
         <v>346.5833333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>338</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7521,14 +7593,20 @@
         <v>346.3833333333333</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>339</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7562,12 +7640,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>340</v>
-      </c>
-      <c r="K205" t="n">
-        <v>340</v>
-      </c>
-      <c r="L205" t="inlineStr"/>
+        <v>341</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7603,12 +7683,10 @@
       <c r="J206" t="n">
         <v>340</v>
       </c>
-      <c r="K206" t="n">
-        <v>340</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -7644,14 +7722,12 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>341</v>
-      </c>
-      <c r="K207" t="n">
         <v>340</v>
       </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -7689,10 +7765,12 @@
       <c r="J208" t="n">
         <v>341</v>
       </c>
-      <c r="K208" t="n">
-        <v>341</v>
-      </c>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7726,14 +7804,12 @@
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>340</v>
-      </c>
-      <c r="K209" t="n">
         <v>341</v>
       </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -7771,12 +7847,10 @@
       <c r="J210" t="n">
         <v>340</v>
       </c>
-      <c r="K210" t="n">
-        <v>341</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -7814,10 +7888,12 @@
       <c r="J211" t="n">
         <v>340</v>
       </c>
-      <c r="K211" t="n">
-        <v>340</v>
-      </c>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7851,14 +7927,12 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>339</v>
-      </c>
-      <c r="K212" t="n">
         <v>340</v>
       </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -7894,11 +7968,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>340</v>
-      </c>
-      <c r="K213" t="n">
-        <v>340</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7937,11 +8009,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>341</v>
-      </c>
-      <c r="K214" t="n">
         <v>340</v>
       </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7974,17 +8044,13 @@
         <v>343.9</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>341</v>
-      </c>
-      <c r="K215" t="n">
-        <v>340</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8017,17 +8083,13 @@
         <v>343.7333333333333</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>343</v>
-      </c>
-      <c r="K216" t="n">
-        <v>340</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8060,17 +8122,13 @@
         <v>343.5666666666667</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>342</v>
-      </c>
-      <c r="K217" t="n">
-        <v>340</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,17 +8161,13 @@
         <v>343.4166666666667</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>343</v>
-      </c>
-      <c r="K218" t="n">
-        <v>340</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8146,17 +8200,13 @@
         <v>343.3</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>342</v>
-      </c>
-      <c r="K219" t="n">
-        <v>340</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8189,17 +8239,13 @@
         <v>343.2333333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>344</v>
-      </c>
-      <c r="K220" t="n">
-        <v>340</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8238,9 +8284,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>340</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8279,9 +8323,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>340</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8320,9 +8362,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>340</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8361,9 +8401,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>340</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8402,9 +8440,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>340</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8443,9 +8479,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>340</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,9 +8518,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>340</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8525,9 +8557,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>340</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8566,9 +8596,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>340</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8607,9 +8635,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>340</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8648,9 +8674,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>340</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8689,9 +8713,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>340</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8730,9 +8752,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>340</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8771,9 +8791,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>340</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8812,9 +8830,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>340</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8847,17 +8863,13 @@
         <v>341.8333333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>339</v>
-      </c>
-      <c r="K236" t="n">
-        <v>340</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8890,17 +8902,13 @@
         <v>341.7166666666666</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>340</v>
-      </c>
-      <c r="K237" t="n">
-        <v>340</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8933,17 +8941,13 @@
         <v>341.6</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>339</v>
-      </c>
-      <c r="K238" t="n">
-        <v>340</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8976,17 +8980,13 @@
         <v>341.5</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>340</v>
-      </c>
-      <c r="K239" t="n">
-        <v>340</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9019,17 +9019,13 @@
         <v>341.45</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>339</v>
-      </c>
-      <c r="K240" t="n">
-        <v>340</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9062,17 +9058,13 @@
         <v>341.3666666666667</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>340</v>
-      </c>
-      <c r="K241" t="n">
-        <v>340</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9105,17 +9097,13 @@
         <v>341.25</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>340</v>
-      </c>
-      <c r="K242" t="n">
-        <v>340</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9148,17 +9136,13 @@
         <v>341.1666666666667</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>340</v>
-      </c>
-      <c r="K243" t="n">
-        <v>340</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,17 +9175,13 @@
         <v>341.0833333333333</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>340</v>
-      </c>
-      <c r="K244" t="n">
-        <v>340</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9234,17 +9214,13 @@
         <v>341.0166666666667</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>341</v>
-      </c>
-      <c r="K245" t="n">
-        <v>340</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9277,17 +9253,13 @@
         <v>341.0166666666667</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>341</v>
-      </c>
-      <c r="K246" t="n">
-        <v>340</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9320,17 +9292,13 @@
         <v>341.0666666666667</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>341</v>
-      </c>
-      <c r="K247" t="n">
-        <v>340</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9363,17 +9331,13 @@
         <v>341.1333333333333</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>344</v>
-      </c>
-      <c r="K248" t="n">
-        <v>340</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9406,17 +9370,13 @@
         <v>341.2333333333333</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>344</v>
-      </c>
-      <c r="K249" t="n">
-        <v>340</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9449,17 +9409,13 @@
         <v>341.3333333333333</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>344</v>
-      </c>
-      <c r="K250" t="n">
-        <v>340</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9492,17 +9448,13 @@
         <v>341.3833333333333</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>343</v>
-      </c>
-      <c r="K251" t="n">
-        <v>340</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9541,9 +9493,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>340</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9582,9 +9532,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>340</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9623,9 +9571,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>340</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9664,9 +9610,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>340</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9705,9 +9649,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>340</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9746,9 +9688,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>340</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9787,9 +9727,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>340</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9828,9 +9766,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>340</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9869,9 +9805,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>340</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9910,9 +9844,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>340</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9951,9 +9883,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>340</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9992,9 +9922,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>340</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10033,9 +9961,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>340</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10074,9 +10000,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>340</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10115,9 +10039,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>340</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10156,9 +10078,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>340</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10197,9 +10117,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>340</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10238,9 +10156,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>340</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10279,9 +10195,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>340</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10320,9 +10234,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>340</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10361,9 +10273,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>340</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10402,9 +10312,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>340</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10443,9 +10351,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>340</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10484,9 +10390,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>340</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10525,9 +10429,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>340</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10566,9 +10468,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>340</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10607,9 +10507,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>340</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10648,9 +10546,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>340</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10689,9 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>340</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10730,9 +10624,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>340</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10771,9 +10663,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>340</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10812,9 +10702,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>340</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10853,9 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>340</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10894,9 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>340</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10935,9 +10819,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>340</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10976,9 +10858,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>340</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11017,9 +10897,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>340</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11058,9 +10936,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>340</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11099,9 +10975,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>340</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11140,9 +11014,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>340</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11181,9 +11053,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>340</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11222,9 +11092,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>340</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11263,9 +11131,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>340</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11304,9 +11170,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>340</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11345,9 +11209,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>340</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11386,9 +11248,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>340</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11427,9 +11287,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>340</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11468,9 +11326,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>340</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11509,9 +11365,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>340</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11550,9 +11404,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>340</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11591,9 +11443,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>340</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11632,9 +11482,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>340</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11673,9 +11521,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>340</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11714,9 +11560,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>340</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11755,9 +11599,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>340</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11796,9 +11638,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>340</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11837,9 +11677,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>340</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11878,9 +11716,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>340</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11919,9 +11755,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>340</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11960,9 +11794,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>340</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12001,9 +11833,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>340</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12042,9 +11872,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>340</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12083,9 +11911,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>340</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12124,9 +11950,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>340</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12165,9 +11989,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>340</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12206,9 +12028,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>340</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12247,9 +12067,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>340</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12288,9 +12106,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>340</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12329,9 +12145,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>340</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12370,9 +12184,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>340</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12411,9 +12223,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>340</v>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12452,9 +12262,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>340</v>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12493,9 +12301,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>340</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12534,9 +12340,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>340</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12575,9 +12379,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>340</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12616,9 +12418,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>340</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12657,9 +12457,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>340</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12698,9 +12496,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>340</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12739,9 +12535,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>340</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12780,9 +12574,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>340</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12821,9 +12613,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>340</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12862,9 +12652,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>340</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12903,9 +12691,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>340</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12944,9 +12730,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>340</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12985,9 +12769,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>340</v>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13026,9 +12808,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>340</v>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13067,9 +12847,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>340</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13108,9 +12886,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>340</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13149,9 +12925,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>340</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13190,9 +12964,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>340</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13231,9 +13003,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>340</v>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13272,9 +13042,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>340</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13313,9 +13081,7 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>340</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13354,9 +13120,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>340</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13395,9 +13159,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>340</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13436,9 +13198,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>340</v>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13477,9 +13237,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>340</v>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13518,9 +13276,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>340</v>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13559,9 +13315,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>340</v>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13600,9 +13354,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>340</v>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13641,9 +13393,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>340</v>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13682,9 +13432,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>340</v>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13723,9 +13471,7 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>340</v>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13764,9 +13510,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>340</v>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13805,9 +13549,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>340</v>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13846,9 +13588,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>340</v>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13887,9 +13627,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>340</v>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13928,9 +13666,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>340</v>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13969,9 +13705,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>340</v>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14010,9 +13744,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>340</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14051,9 +13783,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>340</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14092,9 +13822,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>340</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14133,9 +13861,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>340</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14174,9 +13900,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>340</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14215,9 +13939,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>340</v>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14256,9 +13978,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>340</v>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14297,9 +14017,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>340</v>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14338,9 +14056,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>340</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14379,9 +14095,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>340</v>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14420,9 +14134,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>340</v>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14461,9 +14173,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>340</v>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14502,9 +14212,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>340</v>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14543,9 +14251,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>340</v>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14584,9 +14290,7 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>340</v>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14625,9 +14329,7 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>340</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14666,9 +14368,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>340</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14707,9 +14407,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>340</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14748,9 +14446,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>340</v>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14789,9 +14485,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>340</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14830,9 +14524,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>340</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14871,9 +14563,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>340</v>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14912,9 +14602,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>340</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14953,9 +14641,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>340</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14994,9 +14680,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>340</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15035,9 +14719,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>340</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15076,9 +14758,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>340</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-11-02 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-02 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1578.731734343632</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2326.731734343632</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>345</v>
@@ -521,9 +521,11 @@
         <v>770.8149659462233</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>344</v>
+      </c>
       <c r="J4" t="n">
         <v>345</v>
       </c>
@@ -950,9 +952,11 @@
         <v>-60241.57993405378</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>342</v>
+      </c>
       <c r="J15" t="n">
         <v>345</v>
       </c>
@@ -989,9 +993,11 @@
         <v>-60317.80943405378</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>340</v>
+      </c>
       <c r="J16" t="n">
         <v>345</v>
       </c>
@@ -1028,9 +1034,11 @@
         <v>-60283.58113405378</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>339</v>
+      </c>
       <c r="J17" t="n">
         <v>345</v>
       </c>
@@ -1067,9 +1075,11 @@
         <v>-60283.58113405378</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>342</v>
+      </c>
       <c r="J18" t="n">
         <v>345</v>
       </c>
@@ -1106,9 +1116,11 @@
         <v>-60283.58113405378</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>342</v>
+      </c>
       <c r="J19" t="n">
         <v>345</v>
       </c>
@@ -1145,9 +1157,11 @@
         <v>-60283.58113405378</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>342</v>
+      </c>
       <c r="J20" t="n">
         <v>345</v>
       </c>
@@ -1184,9 +1198,11 @@
         <v>-52886.08603405378</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>342</v>
+      </c>
       <c r="J21" t="n">
         <v>345</v>
       </c>
@@ -1223,9 +1239,11 @@
         <v>-52886.08603405378</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>346</v>
+      </c>
       <c r="J22" t="n">
         <v>345</v>
       </c>
@@ -2978,9 +2996,11 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>353</v>
+      </c>
       <c r="J67" t="n">
         <v>345</v>
       </c>
@@ -3095,9 +3115,11 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>353</v>
+      </c>
       <c r="J70" t="n">
         <v>345</v>
       </c>
@@ -4031,7 +4053,7 @@
         <v>22934.04825754914</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
@@ -4039,11 +4061,11 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.047173913043478</v>
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
     </row>
@@ -4070,11 +4092,17 @@
         <v>13814.76935754914</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>345</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4103,11 +4131,17 @@
         <v>15828.46735754914</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>345</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +4170,17 @@
         <v>21236.36565754914</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>345</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4169,11 +4209,17 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>345</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4202,11 +4248,17 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>345</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4235,11 +4287,17 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>345</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4271,8 +4329,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>345</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4304,8 +4368,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>345</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4337,8 +4407,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>345</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4370,8 +4446,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>345</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4403,8 +4485,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>345</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4436,8 +4524,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>345</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4469,8 +4563,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>345</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4502,8 +4602,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>345</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4535,8 +4641,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>345</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4568,8 +4680,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>345</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4601,8 +4719,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>345</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4634,8 +4758,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>345</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4667,8 +4797,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>345</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4700,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>345</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4733,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>345</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4766,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>345</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4799,8 +4953,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>345</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>345</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4865,8 +5031,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>345</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4898,8 +5070,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>345</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4931,8 +5109,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>345</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4964,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>345</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4997,8 +5187,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>345</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5030,8 +5226,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>345</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5063,8 +5265,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>345</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5096,8 +5304,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>345</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5129,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>345</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5162,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>345</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5192,13 +5418,19 @@
         <v>108862.6450575491</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>345</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>1.035579710144928</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
@@ -5225,7 +5457,7 @@
         <v>108475.2238575491</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5258,7 +5490,7 @@
         <v>108732.5238575491</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5291,7 +5523,7 @@
         <v>109203.657416767</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5324,7 +5556,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5357,7 +5589,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5390,7 +5622,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5423,7 +5655,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5456,7 +5688,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5489,7 +5721,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5522,7 +5754,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5555,7 +5787,7 @@
         <v>109057.204916767</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5588,7 +5820,7 @@
         <v>109142.139116767</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5621,7 +5853,7 @@
         <v>109142.139116767</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5654,7 +5886,7 @@
         <v>115958.1927575491</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5687,7 +5919,7 @@
         <v>120644.6465575491</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5720,7 +5952,7 @@
         <v>120644.6465575491</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5753,7 +5985,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5786,7 +6018,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5819,7 +6051,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5852,7 +6084,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5885,7 +6117,7 @@
         <v>115761.2184575491</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5918,7 +6150,7 @@
         <v>117367.9264575491</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5951,7 +6183,7 @@
         <v>115367.9264575491</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5984,7 +6216,7 @@
         <v>115367.9264575491</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6017,7 +6249,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6050,7 +6282,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6083,7 +6315,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6116,7 +6348,7 @@
         <v>113473.5362575491</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6149,7 +6381,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6182,7 +6414,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6215,7 +6447,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6248,7 +6480,7 @@
         <v>109798.2988575491</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6281,7 +6513,7 @@
         <v>109798.2988575491</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6314,7 +6546,7 @@
         <v>116247.3814575491</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6347,7 +6579,7 @@
         <v>117653.4255575491</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6380,7 +6612,7 @@
         <v>118885.8452575491</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6413,7 +6645,7 @@
         <v>118885.8452575491</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6446,7 +6678,7 @@
         <v>118885.8451575491</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6479,7 +6711,7 @@
         <v>116300.1830575491</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6512,7 +6744,7 @@
         <v>116311.6083575491</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6545,7 +6777,7 @@
         <v>114882.2354575491</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6611,7 +6843,7 @@
         <v>113206.9725575491</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6644,7 +6876,7 @@
         <v>111139.5980575491</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6677,7 +6909,7 @@
         <v>111148.9509575491</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6710,7 +6942,7 @@
         <v>113577.6391575491</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6743,7 +6975,7 @@
         <v>107387.3444575491</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6776,7 +7008,7 @@
         <v>108042.7502575491</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6809,7 +7041,7 @@
         <v>108042.7502575491</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6842,7 +7074,7 @@
         <v>108042.7502575491</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6875,7 +7107,7 @@
         <v>108042.7502575491</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6908,7 +7140,7 @@
         <v>107095.6415575491</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6941,7 +7173,7 @@
         <v>107095.6415575491</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6974,7 +7206,7 @@
         <v>107095.6415575491</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7007,7 +7239,7 @@
         <v>106999.8815575491</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7040,7 +7272,7 @@
         <v>106999.8815575491</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7073,7 +7305,7 @@
         <v>106999.8815575491</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7106,7 +7338,7 @@
         <v>106999.8815575491</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7139,7 +7371,7 @@
         <v>106999.8815575491</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7172,7 +7404,7 @@
         <v>98668.92395754911</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7205,7 +7437,7 @@
         <v>81097.0227575491</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7238,7 +7470,7 @@
         <v>81881.2783575491</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7271,7 +7503,7 @@
         <v>81881.2783575491</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7304,7 +7536,7 @@
         <v>81877.2191575491</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7337,7 +7569,7 @@
         <v>82049.69785754911</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7370,7 +7602,7 @@
         <v>80384.4569575491</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7403,7 +7635,7 @@
         <v>80454.18285754911</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7436,7 +7668,7 @@
         <v>92347.03515754911</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7535,7 +7767,7 @@
         <v>87079.2047575491</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7568,7 +7800,7 @@
         <v>86156.5861575491</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7601,7 +7833,7 @@
         <v>86156.5861575491</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7931,7 +8163,7 @@
         <v>76675.31305754909</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7964,7 +8196,7 @@
         <v>76675.31305754909</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7997,7 +8229,7 @@
         <v>76675.31305754909</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8030,7 +8262,7 @@
         <v>76675.31305754909</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8063,7 +8295,7 @@
         <v>76675.31305754909</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8096,7 +8328,7 @@
         <v>74832.9228575491</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8129,7 +8361,7 @@
         <v>74832.9228575491</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8162,7 +8394,7 @@
         <v>72682.4583575491</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8195,7 +8427,7 @@
         <v>72682.4583575491</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8228,7 +8460,7 @@
         <v>72682.4583575491</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8294,7 +8526,7 @@
         <v>50217.18925754909</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9812,14 +10044,10 @@
         <v>1823.658257549093</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>340</v>
-      </c>
-      <c r="J269" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
@@ -9852,14 +10080,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>340</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9888,19 +10110,11 @@
         <v>-14760.56024245091</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>340</v>
-      </c>
-      <c r="J271" t="n">
-        <v>340</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9929,19 +10143,11 @@
         <v>-5224.465342450905</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>338</v>
-      </c>
-      <c r="J272" t="n">
-        <v>340</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9970,7 +10176,7 @@
         <v>-4326.453742450905</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>340</v>
@@ -9978,11 +10184,7 @@
       <c r="J273" t="n">
         <v>340</v>
       </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10011,17 +10213,15 @@
         <v>-4326.453742450905</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
         <v>340</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -10052,17 +10252,15 @@
         <v>-1923.519882975687</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
         <v>340</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -10096,14 +10294,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>340</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10135,14 +10327,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>340</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10174,14 +10360,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>340</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10213,14 +10393,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>340</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10252,14 +10426,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>340</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10291,14 +10459,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>340</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10330,14 +10492,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>340</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10369,14 +10525,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>340</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10408,14 +10558,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>340</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10447,14 +10591,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>340</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10486,14 +10624,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>340</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10525,14 +10657,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>340</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10564,14 +10690,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>340</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10603,14 +10723,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>340</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10642,14 +10756,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>340</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10681,14 +10789,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>340</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10720,14 +10822,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>340</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10756,15 +10852,15 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>342</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L293" t="n">
@@ -10795,12 +10891,12 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>339</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10834,12 +10930,12 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>339</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10873,12 +10969,12 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>339</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10912,14 +11008,12 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>339</v>
       </c>
-      <c r="J297" t="n">
-        <v>340</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10953,14 +11047,12 @@
         <v>-46290.37322635895</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>339</v>
       </c>
-      <c r="J298" t="n">
-        <v>340</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10994,14 +11086,12 @@
         <v>-47001.80502635895</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>340</v>
       </c>
-      <c r="J299" t="n">
-        <v>340</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11035,14 +11125,12 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>339</v>
       </c>
-      <c r="J300" t="n">
-        <v>340</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11076,14 +11164,12 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>340</v>
       </c>
-      <c r="J301" t="n">
-        <v>340</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11117,14 +11203,12 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>340</v>
       </c>
-      <c r="J302" t="n">
-        <v>340</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11158,14 +11242,12 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>340</v>
       </c>
-      <c r="J303" t="n">
-        <v>340</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11199,14 +11281,12 @@
         <v>-38709.54382635895</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>340</v>
       </c>
-      <c r="J304" t="n">
-        <v>340</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11240,14 +11320,12 @@
         <v>-38709.54382635895</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>341</v>
       </c>
-      <c r="J305" t="n">
-        <v>340</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11281,14 +11359,12 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>341</v>
       </c>
-      <c r="J306" t="n">
-        <v>340</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11322,14 +11398,12 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>344</v>
       </c>
-      <c r="J307" t="n">
-        <v>340</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11363,12 +11437,12 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>344</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11402,12 +11476,12 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>344</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11444,9 +11518,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>340</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11480,12 +11552,12 @@
         <v>-37777.05853914964</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>343</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11519,12 +11591,12 @@
         <v>-37688.06073914965</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>344</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,12 +11630,12 @@
         <v>-37688.06073914965</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>345</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11597,12 +11669,12 @@
         <v>-37992.50633914964</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>345</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11636,14 +11708,10 @@
         <v>-37992.50633914964</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>344</v>
-      </c>
-      <c r="J315" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11677,14 +11745,12 @@
         <v>-37992.50633914964</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>344</v>
       </c>
-      <c r="J316" t="n">
-        <v>340</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11718,14 +11784,12 @@
         <v>-37628.39213914964</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>344</v>
       </c>
-      <c r="J317" t="n">
-        <v>340</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11759,14 +11823,12 @@
         <v>-38079.94563914964</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>345</v>
       </c>
-      <c r="J318" t="n">
-        <v>340</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11800,14 +11862,12 @@
         <v>-38079.94563914964</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>344</v>
       </c>
-      <c r="J319" t="n">
-        <v>340</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11841,14 +11901,12 @@
         <v>-38079.94563914964</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>344</v>
       </c>
-      <c r="J320" t="n">
-        <v>340</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11882,12 +11940,12 @@
         <v>-38079.94563914964</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>344</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11921,12 +11979,12 @@
         <v>-38078.94563914964</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>344</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11963,9 +12021,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>340</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12002,9 +12058,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>340</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12041,9 +12095,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>340</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12080,9 +12132,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>340</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12119,9 +12169,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>340</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12158,9 +12206,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>340</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12197,9 +12243,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>340</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12236,9 +12280,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>340</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12275,9 +12317,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>340</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12314,9 +12354,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>340</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12353,9 +12391,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>340</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12392,9 +12428,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>340</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12431,9 +12465,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>340</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12470,9 +12502,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>340</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12509,9 +12539,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>340</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12548,9 +12576,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>340</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12587,9 +12613,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>340</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12626,9 +12650,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>340</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12665,9 +12687,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>340</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12704,9 +12724,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>340</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12743,9 +12761,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>340</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12782,9 +12798,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>340</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12818,14 +12832,10 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>347</v>
-      </c>
-      <c r="J345" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12862,9 +12872,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>340</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12898,14 +12906,12 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>346</v>
       </c>
-      <c r="J347" t="n">
-        <v>340</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12939,14 +12945,12 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>346</v>
       </c>
-      <c r="J348" t="n">
-        <v>340</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12980,14 +12984,12 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>346</v>
       </c>
-      <c r="J349" t="n">
-        <v>340</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13021,12 +13023,12 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>340</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>346</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13063,9 +13065,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>340</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13102,9 +13102,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>340</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13141,9 +13139,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>340</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13180,9 +13176,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>340</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13219,9 +13213,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>340</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13258,9 +13250,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>340</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13297,9 +13287,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>340</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13336,9 +13324,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>340</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13375,9 +13361,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>340</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13414,9 +13398,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>340</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13453,9 +13435,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>340</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13492,9 +13472,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>340</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13531,9 +13509,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>340</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13570,9 +13546,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>340</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13609,9 +13583,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>340</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13648,9 +13620,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>340</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13687,9 +13657,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>340</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13726,9 +13694,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>340</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13765,9 +13731,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>340</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13804,9 +13768,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>340</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13843,9 +13805,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>340</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13882,9 +13842,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>340</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13921,9 +13879,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>340</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13960,9 +13916,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>340</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13999,9 +13953,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>340</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14038,9 +13990,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>340</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14077,9 +14027,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>340</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14116,9 +14064,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>340</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14155,9 +14101,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>340</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14194,9 +14138,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>340</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14233,9 +14175,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>340</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14272,9 +14212,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>340</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14311,9 +14249,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>340</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14350,9 +14286,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>340</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14389,9 +14323,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>340</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14428,9 +14360,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>340</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14467,9 +14397,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>340</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14506,9 +14434,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>340</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14545,9 +14471,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>340</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14584,9 +14508,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>340</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14623,9 +14545,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>340</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14662,9 +14582,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>340</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14701,9 +14619,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>340</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14740,9 +14656,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>340</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14779,9 +14693,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>340</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14818,9 +14730,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>340</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14857,9 +14767,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>340</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14896,9 +14804,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>340</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14935,9 +14841,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>340</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14974,9 +14878,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>340</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15013,9 +14915,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>340</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15052,9 +14952,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>340</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15091,9 +14989,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>340</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15130,9 +15026,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>340</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15169,9 +15063,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>340</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15208,9 +15100,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>340</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,9 +15137,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>340</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15286,9 +15174,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>340</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15325,9 +15211,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>340</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15364,9 +15248,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>340</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15403,9 +15285,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>340</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15442,9 +15322,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>340</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15481,9 +15359,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>340</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15520,9 +15396,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>340</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15559,9 +15433,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>340</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15598,9 +15470,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>340</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15637,9 +15507,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>340</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15676,9 +15544,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>340</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15715,9 +15581,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>340</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15754,9 +15618,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>340</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15793,9 +15655,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>340</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15832,9 +15692,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>340</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15871,9 +15729,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>340</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15910,9 +15766,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>340</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15949,9 +15803,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>340</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15988,9 +15840,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>340</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16027,9 +15877,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>340</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16066,9 +15914,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>340</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16105,9 +15951,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>340</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16144,9 +15988,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>340</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16183,9 +16025,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>340</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16222,9 +16062,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>340</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16261,9 +16099,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>340</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16300,9 +16136,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>340</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16339,9 +16173,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>340</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16375,19 +16207,17 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>340</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L436" t="n">
-        <v>1.036176470588235</v>
+        <v>1</v>
       </c>
       <c r="M436" t="inlineStr"/>
     </row>
@@ -16414,11 +16244,15 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16447,11 +16281,15 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16480,11 +16318,15 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16513,11 +16355,15 @@
         <v>100182.0663456213</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16546,11 +16392,15 @@
         <v>110919.5770818573</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16579,11 +16429,15 @@
         <v>110919.5770818573</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16612,11 +16466,15 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16645,11 +16503,15 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16678,11 +16540,15 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16711,11 +16577,15 @@
         <v>110214.1613818573</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16744,14 +16614,16 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="inlineStr"/>
     </row>
     <row r="448">
@@ -16777,7 +16649,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16810,7 +16682,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16843,7 +16715,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16876,7 +16748,7 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16909,7 +16781,7 @@
         <v>119782.0022818573</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16942,7 +16814,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16975,7 +16847,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17008,7 +16880,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17041,7 +16913,7 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17052,6 +16924,6 @@
       <c r="M456" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-02 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1578.731734343632</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-2326.731734343632</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>345</v>
-      </c>
-      <c r="J3" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>770.8149659462233</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>344</v>
-      </c>
-      <c r="J4" t="n">
-        <v>345</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>345</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -604,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>345</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -643,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>345</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -682,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>345</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -721,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>345</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -760,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>345</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -799,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>345</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -838,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>345</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -877,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>345</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -916,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>345</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,19 +880,11 @@
         <v>-60241.57993405378</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>342</v>
-      </c>
-      <c r="J15" t="n">
-        <v>345</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -993,19 +913,11 @@
         <v>-60317.80943405378</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>340</v>
-      </c>
-      <c r="J16" t="n">
-        <v>345</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1034,19 +946,11 @@
         <v>-60283.58113405378</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>339</v>
-      </c>
-      <c r="J17" t="n">
-        <v>345</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1075,19 +979,11 @@
         <v>-60283.58113405378</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>342</v>
-      </c>
-      <c r="J18" t="n">
-        <v>345</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1116,19 +1012,11 @@
         <v>-60283.58113405378</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>342</v>
-      </c>
-      <c r="J19" t="n">
-        <v>345</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1157,19 +1045,11 @@
         <v>-60283.58113405378</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>342</v>
-      </c>
-      <c r="J20" t="n">
-        <v>345</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1198,19 +1078,11 @@
         <v>-52886.08603405378</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>342</v>
-      </c>
-      <c r="J21" t="n">
-        <v>345</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1239,19 +1111,11 @@
         <v>-52886.08603405378</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>346</v>
-      </c>
-      <c r="J22" t="n">
-        <v>345</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1283,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>345</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1322,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>345</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1361,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>345</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1400,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>345</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1439,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>345</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1478,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>345</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1517,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>345</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1556,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>345</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1595,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>345</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1634,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>345</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1673,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>345</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1712,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>345</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1751,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>345</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1790,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>345</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1829,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>345</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1868,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>345</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1907,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>345</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1946,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>345</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1982,17 +1738,11 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>345</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2024,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>345</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2060,17 +1804,11 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>345</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2099,17 +1837,11 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>345</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2138,17 +1870,11 @@
         <v>-51568.16223405379</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>345</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2177,17 +1903,11 @@
         <v>-51568.16223405379</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>345</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2216,17 +1936,11 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>345</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2255,17 +1969,11 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>345</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2294,17 +2002,11 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>345</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2333,17 +2035,11 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>345</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2375,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>345</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2414,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>345</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2453,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>345</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2489,17 +2167,11 @@
         <v>-53064.78123405379</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>345</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2528,17 +2200,11 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>345</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2567,17 +2233,11 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>345</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2606,17 +2266,11 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>345</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2645,17 +2299,11 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>345</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2684,17 +2332,11 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>345</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2723,17 +2365,11 @@
         <v>-54561.93223120479</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>345</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2762,17 +2398,11 @@
         <v>-54560.20663405379</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>345</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2801,17 +2431,11 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>345</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2840,17 +2464,11 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>345</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2879,17 +2497,11 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>345</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2918,17 +2530,11 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>345</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2960,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>345</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2996,19 +2596,11 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>353</v>
-      </c>
-      <c r="J67" t="n">
-        <v>345</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3040,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>345</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3079,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>345</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3115,19 +2695,11 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>353</v>
-      </c>
-      <c r="J70" t="n">
-        <v>345</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3156,17 +2728,11 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>345</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3195,17 +2761,11 @@
         <v>-48937.54593405379</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>345</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3237,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>345</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3276,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>345</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3315,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>345</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3354,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>345</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3393,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>345</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3432,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>345</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3471,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>345</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3510,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>345</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3549,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>345</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3588,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>345</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3627,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>345</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3666,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>345</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3705,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>345</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3744,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>345</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3783,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>345</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3822,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>345</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3861,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>345</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3900,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>345</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3939,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>345</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3978,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>345</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4017,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>345</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>345</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4095,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>345</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4134,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>345</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4173,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>345</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4212,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>345</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4251,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>345</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4290,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>345</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4329,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>345</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4368,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>345</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4407,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>345</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4446,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>345</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4485,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>345</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4524,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>345</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4563,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>345</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4602,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>345</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4641,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>345</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4680,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>345</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4719,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>345</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4758,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>345</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4797,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>345</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4836,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>345</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4875,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>345</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4914,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>345</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4953,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>345</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4992,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>345</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5031,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>345</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5070,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>345</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5109,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>345</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5148,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>345</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5187,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>345</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5226,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>345</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5265,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>345</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5304,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>345</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5343,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>345</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5382,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>345</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5418,19 +4642,13 @@
         <v>108862.6450575491</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>345</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>1.035579710144928</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
@@ -5457,7 +4675,7 @@
         <v>108475.2238575491</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5490,7 +4708,7 @@
         <v>108732.5238575491</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5523,7 +4741,7 @@
         <v>109203.657416767</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5556,7 +4774,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5589,7 +4807,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5622,7 +4840,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5655,7 +4873,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5688,7 +4906,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5721,7 +4939,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5754,7 +4972,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5787,7 +5005,7 @@
         <v>109057.204916767</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5820,7 +5038,7 @@
         <v>109142.139116767</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5853,7 +5071,7 @@
         <v>109142.139116767</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5886,7 +5104,7 @@
         <v>115958.1927575491</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5919,7 +5137,7 @@
         <v>120644.6465575491</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5952,7 +5170,7 @@
         <v>120644.6465575491</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5985,7 +5203,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6018,7 +5236,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6051,7 +5269,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6084,7 +5302,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6117,7 +5335,7 @@
         <v>115761.2184575491</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6150,7 +5368,7 @@
         <v>117367.9264575491</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6183,7 +5401,7 @@
         <v>115367.9264575491</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6216,7 +5434,7 @@
         <v>115367.9264575491</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6249,7 +5467,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6282,7 +5500,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6315,7 +5533,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6348,7 +5566,7 @@
         <v>113473.5362575491</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6381,7 +5599,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6414,7 +5632,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6447,7 +5665,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6480,7 +5698,7 @@
         <v>109798.2988575491</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6513,7 +5731,7 @@
         <v>109798.2988575491</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6546,7 +5764,7 @@
         <v>116247.3814575491</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6579,7 +5797,7 @@
         <v>117653.4255575491</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6612,7 +5830,7 @@
         <v>118885.8452575491</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6645,7 +5863,7 @@
         <v>118885.8452575491</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6678,7 +5896,7 @@
         <v>118885.8451575491</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6711,7 +5929,7 @@
         <v>116300.1830575491</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6744,7 +5962,7 @@
         <v>116311.6083575491</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6777,7 +5995,7 @@
         <v>114882.2354575491</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6843,7 +6061,7 @@
         <v>113206.9725575491</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6942,7 +6160,7 @@
         <v>113577.6391575491</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6975,7 +6193,7 @@
         <v>107387.3444575491</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7008,7 +6226,7 @@
         <v>108042.7502575491</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7041,7 +6259,7 @@
         <v>108042.7502575491</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7074,7 +6292,7 @@
         <v>108042.7502575491</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7107,7 +6325,7 @@
         <v>108042.7502575491</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7140,7 +6358,7 @@
         <v>107095.6415575491</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7173,7 +6391,7 @@
         <v>107095.6415575491</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7206,7 +6424,7 @@
         <v>107095.6415575491</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7239,7 +6457,7 @@
         <v>106999.8815575491</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7272,7 +6490,7 @@
         <v>106999.8815575491</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7305,7 +6523,7 @@
         <v>106999.8815575491</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7338,7 +6556,7 @@
         <v>106999.8815575491</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7371,7 +6589,7 @@
         <v>106999.8815575491</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7404,7 +6622,7 @@
         <v>98668.92395754911</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7437,7 +6655,7 @@
         <v>81097.0227575491</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7470,7 +6688,7 @@
         <v>81881.2783575491</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7503,7 +6721,7 @@
         <v>81881.2783575491</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7536,7 +6754,7 @@
         <v>81877.2191575491</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7569,7 +6787,7 @@
         <v>82049.69785754911</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7602,7 +6820,7 @@
         <v>80384.4569575491</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7635,7 +6853,7 @@
         <v>80454.18285754911</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7668,7 +6886,7 @@
         <v>92347.03515754911</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8163,7 +7381,7 @@
         <v>76675.31305754909</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8196,7 +7414,7 @@
         <v>76675.31305754909</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8229,7 +7447,7 @@
         <v>76675.31305754909</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8262,7 +7480,7 @@
         <v>76675.31305754909</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8295,7 +7513,7 @@
         <v>76675.31305754909</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8328,7 +7546,7 @@
         <v>74832.9228575491</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8361,7 +7579,7 @@
         <v>74832.9228575491</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8394,7 +7612,7 @@
         <v>72682.4583575491</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8427,7 +7645,7 @@
         <v>72682.4583575491</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8460,7 +7678,7 @@
         <v>72682.4583575491</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8526,7 +7744,7 @@
         <v>50217.18925754909</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -10176,14 +9394,10 @@
         <v>-4326.453742450905</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>340</v>
-      </c>
-      <c r="J273" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
@@ -10216,14 +9430,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>340</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10255,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>340</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10852,17 +10054,11 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>342</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10891,17 +10087,11 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10930,17 +10120,11 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10969,17 +10153,11 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11008,17 +10186,11 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11047,17 +10219,11 @@
         <v>-46290.37322635895</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11086,17 +10252,11 @@
         <v>-47001.80502635895</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11125,17 +10285,11 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11164,17 +10318,11 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11203,17 +10351,11 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11247,12 +10389,10 @@
       <c r="I303" t="n">
         <v>340</v>
       </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="n">
+        <v>340</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11286,10 +10426,12 @@
       <c r="I304" t="n">
         <v>340</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>340</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L304" t="n">
@@ -11325,10 +10467,12 @@
       <c r="I305" t="n">
         <v>341</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>340</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L305" t="n">
@@ -11359,17 +10503,11 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11398,17 +10536,11 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11437,17 +10569,11 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11476,17 +10602,11 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11519,11 +10639,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11552,17 +10668,11 @@
         <v>-37777.05853914964</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11591,17 +10701,11 @@
         <v>-37688.06073914965</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11630,17 +10734,11 @@
         <v>-37688.06073914965</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11669,17 +10767,11 @@
         <v>-37992.50633914964</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11712,11 +10804,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11745,17 +10833,11 @@
         <v>-37992.50633914964</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11784,17 +10866,11 @@
         <v>-37628.39213914964</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11823,17 +10899,11 @@
         <v>-38079.94563914964</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11862,17 +10932,11 @@
         <v>-38079.94563914964</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11901,17 +10965,11 @@
         <v>-38079.94563914964</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11940,17 +10998,11 @@
         <v>-38079.94563914964</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11979,17 +11031,11 @@
         <v>-38078.94563914964</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12022,11 +11068,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12059,11 +11101,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12096,11 +11134,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +11167,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12170,11 +11200,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12207,11 +11233,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12244,11 +11266,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12281,11 +11299,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12318,11 +11332,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12355,11 +11365,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12392,11 +11398,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12429,11 +11431,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12466,11 +11464,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12503,11 +11497,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12540,11 +11530,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12577,11 +11563,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12614,11 +11596,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12651,11 +11629,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12688,11 +11662,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12725,11 +11695,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12762,11 +11728,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12795,15 +11757,11 @@
         <v>-38757.88405466688</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12836,11 +11794,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12873,11 +11827,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12906,17 +11856,11 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12945,17 +11889,11 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12984,17 +11922,11 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13023,17 +11955,11 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13066,11 +11992,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13103,11 +12025,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13140,11 +12058,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13177,11 +12091,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13214,11 +12124,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13251,11 +12157,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +12190,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13325,11 +12223,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13362,11 +12256,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13399,11 +12289,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13432,15 +12318,15 @@
         <v>-41591.9311543787</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>344</v>
+      </c>
+      <c r="J361" t="n">
+        <v>344</v>
+      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13469,13 +12355,17 @@
         <v>-41615.9203543787</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>344</v>
+      </c>
+      <c r="J362" t="n">
+        <v>344</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L362" t="n">
@@ -13506,13 +12396,17 @@
         <v>-41615.9203543787</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>343</v>
+      </c>
+      <c r="J363" t="n">
+        <v>344</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L363" t="n">
@@ -13543,15 +12437,15 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>343</v>
+      </c>
+      <c r="J364" t="n">
+        <v>343</v>
+      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13580,13 +12474,17 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>344</v>
+      </c>
+      <c r="J365" t="n">
+        <v>343</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L365" t="n">
@@ -13620,10 +12518,12 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>343</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L366" t="n">
@@ -13658,11 +12558,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13695,11 +12591,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13732,11 +12624,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13769,11 +12657,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13806,11 +12690,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13843,11 +12723,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13880,11 +12756,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13913,15 +12785,11 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13954,11 +12822,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13991,11 +12855,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14028,11 +12888,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14065,11 +12921,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14102,11 +12954,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14139,11 +12987,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14176,11 +13020,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14213,11 +13053,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14250,11 +13086,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14287,11 +13119,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14324,11 +13152,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14361,11 +13185,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14398,11 +13218,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14435,11 +13251,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14472,11 +13284,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +13317,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14546,11 +13350,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14583,11 +13383,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14620,11 +13416,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14657,11 +13449,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14694,11 +13482,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14731,11 +13515,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14768,11 +13548,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14805,11 +13581,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14842,11 +13614,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14879,11 +13647,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14916,11 +13680,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14953,11 +13713,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14990,11 +13746,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15027,11 +13779,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15064,11 +13812,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15101,11 +13845,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15138,11 +13878,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15175,11 +13911,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15212,11 +13944,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15249,11 +13977,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15286,11 +14010,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15323,11 +14043,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15360,11 +14076,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15397,11 +14109,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15434,11 +14142,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15471,11 +14175,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15508,11 +14208,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15545,11 +14241,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15582,11 +14274,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15619,11 +14307,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15656,11 +14340,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15693,11 +14373,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +14406,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15767,11 +14439,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15804,11 +14472,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15841,11 +14505,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15874,15 +14534,11 @@
         <v>107663.0267456213</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15911,15 +14567,11 @@
         <v>106459.9734456213</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15948,15 +14600,11 @@
         <v>106680.3736456213</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15985,15 +14633,11 @@
         <v>105864.5183456213</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16022,15 +14666,11 @@
         <v>107475.7256456213</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16059,15 +14699,11 @@
         <v>107505.4387456213</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16096,15 +14732,11 @@
         <v>105233.7976456213</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16133,15 +14765,11 @@
         <v>116273.0578456213</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16170,15 +14798,11 @@
         <v>102834.9479456213</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16207,15 +14831,11 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16244,15 +14864,11 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16281,15 +14897,11 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16318,15 +14930,11 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16355,15 +14963,11 @@
         <v>100182.0663456213</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16392,15 +14996,11 @@
         <v>110919.5770818573</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16429,15 +15029,11 @@
         <v>110919.5770818573</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16466,15 +15062,11 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16503,15 +15095,11 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16540,15 +15128,11 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16577,15 +15161,11 @@
         <v>110214.1613818573</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16618,12 +15198,10 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
       <c r="M447" t="inlineStr"/>
     </row>
     <row r="448">
@@ -16924,6 +15502,6 @@
       <c r="M456" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-02 BackTest ZRX.xlsx
@@ -1738,7 +1738,7 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-51703.85213405379</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-51568.16223405379</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-51568.16223405379</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-51210.87943405379</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-53064.78123405379</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-53061.93223120479</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-54561.93223120479</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-54560.20663405379</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-49104.2281340538</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-48937.54593405379</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>13814.76935754914</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>15828.46735754914</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>21236.36565754914</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>20394.36565754914</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>18762.60905754914</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>18762.60905754914</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>108884.3109575491</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>108862.6450575491</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>108475.2238575491</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>108732.5238575491</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>109203.657416767</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>109179.814916767</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>120644.6465575491</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>120176.5252575491</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>115761.2184575491</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>117367.9264575491</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>115367.9264575491</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>115367.9264575491</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>113455.2744575491</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>113473.5362575491</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>112428.2818575491</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>117653.4255575491</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>118885.8452575491</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>118885.8452575491</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>118885.8451575491</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>116300.1830575491</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -10186,10 +10186,14 @@
         <v>-48392.97152635895</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>339</v>
+      </c>
+      <c r="J297" t="n">
+        <v>339</v>
+      </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
@@ -10219,11 +10223,19 @@
         <v>-46290.37322635895</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>339</v>
+      </c>
+      <c r="J298" t="n">
+        <v>339</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10264,19 @@
         <v>-47001.80502635895</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>340</v>
+      </c>
+      <c r="J299" t="n">
+        <v>339</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10305,19 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>339</v>
+      </c>
+      <c r="J300" t="n">
+        <v>339</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10346,19 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>340</v>
+      </c>
+      <c r="J301" t="n">
+        <v>339</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10387,19 @@
         <v>-39594.86412635895</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>340</v>
+      </c>
+      <c r="J302" t="n">
+        <v>339</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10390,9 +10434,13 @@
         <v>340</v>
       </c>
       <c r="J303" t="n">
-        <v>340</v>
-      </c>
-      <c r="K303" t="inlineStr"/>
+        <v>339</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10427,11 +10475,11 @@
         <v>340</v>
       </c>
       <c r="J304" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L304" t="n">
@@ -10468,11 +10516,11 @@
         <v>341</v>
       </c>
       <c r="J305" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L305" t="n">
@@ -10503,11 +10551,19 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>341</v>
+      </c>
+      <c r="J306" t="n">
+        <v>339</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10536,11 +10592,19 @@
         <v>-37689.20013914965</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>344</v>
+      </c>
+      <c r="J307" t="n">
+        <v>339</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10572,8 +10636,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>339</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10605,8 +10675,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>339</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10638,8 +10714,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>339</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10671,8 +10753,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>339</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10704,8 +10792,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>339</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10737,8 +10831,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>339</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10770,8 +10870,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>339</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10803,8 +10909,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>339</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10836,8 +10948,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>339</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10869,8 +10987,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>339</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10902,8 +11026,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>339</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10935,8 +11065,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>339</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10968,8 +11104,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>339</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11001,8 +11143,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>339</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11034,8 +11182,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>339</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11067,8 +11221,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>339</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11100,8 +11260,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>339</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11133,8 +11299,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>339</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11166,8 +11338,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>339</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11199,8 +11377,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>339</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11232,8 +11416,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>339</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11265,8 +11455,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>339</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11298,8 +11494,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>339</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11331,8 +11533,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>339</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11364,8 +11572,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>339</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11397,8 +11611,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>339</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11430,8 +11650,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>339</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11463,8 +11689,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>339</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11496,8 +11728,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>339</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11529,8 +11767,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>339</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11562,8 +11806,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>339</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11595,8 +11845,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>339</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11628,8 +11884,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>339</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11661,8 +11923,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>339</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11694,8 +11962,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>339</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11727,8 +12001,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>339</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11757,11 +12037,17 @@
         <v>-38757.88405466688</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>339</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11793,8 +12079,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>339</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11826,8 +12118,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>339</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11856,11 +12154,19 @@
         <v>-38858.68405466688</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>346</v>
+      </c>
+      <c r="J347" t="n">
+        <v>339</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11892,8 +12198,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>339</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11925,8 +12237,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>339</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11958,8 +12276,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>339</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11991,8 +12315,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>339</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12024,8 +12354,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>339</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12057,8 +12393,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>339</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12090,8 +12432,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>339</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12123,8 +12471,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>339</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12156,8 +12510,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>339</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12189,8 +12549,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>339</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12222,8 +12588,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>339</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12255,8 +12627,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>339</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12288,8 +12666,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>339</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12318,15 +12702,17 @@
         <v>-41591.9311543787</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>344</v>
-      </c>
-      <c r="K361" t="inlineStr"/>
+        <v>339</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12355,17 +12741,15 @@
         <v>-41615.9203543787</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L362" t="n">
@@ -12396,17 +12780,15 @@
         <v>-41615.9203543787</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L363" t="n">
@@ -12437,15 +12819,17 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>343</v>
-      </c>
-      <c r="K364" t="inlineStr"/>
+        <v>339</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12474,17 +12858,15 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L365" t="n">
@@ -12519,11 +12901,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L366" t="n">
@@ -12557,8 +12939,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>339</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12590,8 +12978,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>339</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12623,8 +13017,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>339</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12656,8 +13056,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>339</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12689,8 +13095,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>339</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12722,8 +13134,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>339</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12755,8 +13173,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>339</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12785,11 +13209,17 @@
         <v>94295.6036456213</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>339</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12821,8 +13251,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>339</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12854,8 +13290,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>339</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12887,8 +13329,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>339</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12920,8 +13368,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>339</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12953,8 +13407,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>339</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12986,8 +13446,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>339</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13019,8 +13485,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>339</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13052,8 +13524,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>339</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13085,8 +13563,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>339</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13118,8 +13602,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>339</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13151,8 +13641,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>339</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13184,8 +13680,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>339</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13217,8 +13719,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>339</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13250,8 +13758,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>339</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13283,8 +13797,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>339</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13316,8 +13836,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>339</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13349,8 +13875,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>339</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13382,8 +13914,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>339</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13415,8 +13953,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>339</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13448,8 +13992,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>339</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13481,8 +14031,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>339</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13514,8 +14070,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>339</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13547,8 +14109,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>339</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13580,8 +14148,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>339</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13613,8 +14187,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>339</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13646,8 +14226,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>339</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13679,8 +14265,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>339</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13712,8 +14304,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>339</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13745,8 +14343,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>339</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13778,8 +14382,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>339</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13811,8 +14421,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>339</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13844,8 +14460,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>339</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13877,8 +14499,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>339</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13910,8 +14538,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>339</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13943,8 +14577,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>339</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13976,8 +14616,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>339</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14009,8 +14655,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>339</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14042,8 +14694,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>339</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14075,8 +14733,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>339</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14108,8 +14772,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>339</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14141,8 +14811,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>339</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14174,8 +14850,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>339</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14207,8 +14889,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>339</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14240,8 +14928,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>339</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14273,8 +14967,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>339</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14306,8 +15006,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>339</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14339,8 +15045,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>339</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14372,8 +15084,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>339</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14405,8 +15123,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>339</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14438,8 +15162,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>339</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14471,8 +15201,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>339</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14504,8 +15240,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>339</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14534,11 +15276,17 @@
         <v>107663.0267456213</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>339</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14567,11 +15315,17 @@
         <v>106459.9734456213</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>339</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14600,11 +15354,17 @@
         <v>106680.3736456213</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>339</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14633,11 +15393,17 @@
         <v>105864.5183456213</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>339</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14666,11 +15432,17 @@
         <v>107475.7256456213</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>339</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14699,11 +15471,17 @@
         <v>107505.4387456213</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>339</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14732,11 +15510,17 @@
         <v>105233.7976456213</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>339</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14765,11 +15549,17 @@
         <v>116273.0578456213</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>339</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14798,11 +15588,17 @@
         <v>102834.9479456213</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>339</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14831,11 +15627,17 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>339</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14864,11 +15666,17 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>339</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14897,11 +15705,17 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>339</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14930,11 +15744,17 @@
         <v>105253.1880456213</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>339</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14963,11 +15783,17 @@
         <v>100182.0663456213</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>339</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14996,11 +15822,17 @@
         <v>110919.5770818573</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>339</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15029,11 +15861,17 @@
         <v>110919.5770818573</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>339</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15062,11 +15900,17 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>339</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15095,11 +15939,17 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>339</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15128,11 +15978,17 @@
         <v>110196.6895818573</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>339</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15161,11 +16017,17 @@
         <v>110214.1613818573</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>339</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15194,11 +16056,17 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>339</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15227,11 +16095,17 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>339</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15260,11 +16134,17 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>339</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15293,11 +16173,17 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>339</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15326,11 +16212,17 @@
         <v>110179.6101818573</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>339</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15359,11 +16251,17 @@
         <v>119782.0022818573</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>339</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15392,11 +16290,17 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>339</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15425,11 +16329,17 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>339</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15458,11 +16368,17 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>339</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15491,11 +16407,17 @@
         <v>119272.0725818573</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>339</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
